--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061A8DD-6DE0-497A-AD63-29E42F28FE1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8BE0F-AC54-481E-8251-39326A0F9F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33375" yWindow="1470" windowWidth="17775" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Monday</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>8:00-12:00</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -232,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -270,6 +285,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +593,7 @@
     <col min="8" max="8" width="2.5703125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -599,12 +624,21 @@
       <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43710</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>43711</v>
       </c>
       <c r="C2" s="11">
@@ -630,9 +664,9 @@
         <v>8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -662,6 +696,9 @@
       <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -693,9 +730,9 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -727,9 +764,9 @@
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -761,9 +798,9 @@
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -794,6 +831,9 @@
       <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -813,6 +853,9 @@
       <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -842,14 +885,13 @@
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
@@ -871,6 +913,9 @@
       <c r="J10" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -894,6 +939,9 @@
       <c r="G11" s="12">
         <v>43723</v>
       </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -917,6 +965,9 @@
       <c r="G12" s="12">
         <v>43730</v>
       </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -940,6 +991,9 @@
       <c r="G13" s="12">
         <v>43737</v>
       </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -963,6 +1017,9 @@
       <c r="G14" s="12">
         <v>43744</v>
       </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -986,6 +1043,9 @@
       <c r="G15" s="12">
         <v>43751</v>
       </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -999,6 +1059,29 @@
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8BE0F-AC54-481E-8251-39326A0F9F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4CAED9-3875-4A6B-AD2D-8B08614C597D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33375" yWindow="1470" windowWidth="17775" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Course Content</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +152,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -247,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -294,6 +309,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +668,7 @@
       <c r="B2" s="10">
         <v>43711</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>43712</v>
       </c>
       <c r="D2" s="11">
@@ -892,9 +919,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
@@ -918,8 +943,8 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
+      <c r="A11" s="11">
+        <v>43717</v>
       </c>
       <c r="B11" s="11">
         <v>43718</v>
@@ -1063,27 +1088,349 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>6</v>
+      </c>
+      <c r="G18" s="19">
+        <v>7</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19">
+        <v>13</v>
+      </c>
+      <c r="G19" s="19">
+        <v>14</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18">
+        <v>19</v>
+      </c>
+      <c r="F20" s="18">
+        <v>20</v>
+      </c>
+      <c r="G20" s="18">
+        <v>21</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <v>23</v>
+      </c>
+      <c r="C21" s="18">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18">
+        <v>26</v>
+      </c>
+      <c r="F21" s="18">
+        <v>27</v>
+      </c>
+      <c r="G21" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>29</v>
+      </c>
+      <c r="B22" s="18">
+        <v>30</v>
+      </c>
+      <c r="C22" s="18">
+        <v>31</v>
+      </c>
+      <c r="D22" s="18">
+        <v>32</v>
+      </c>
+      <c r="E22" s="18">
+        <v>33</v>
+      </c>
+      <c r="F22" s="18">
+        <v>34</v>
+      </c>
+      <c r="G22" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>36</v>
+      </c>
+      <c r="B23" s="18">
+        <v>37</v>
+      </c>
+      <c r="C23" s="18">
+        <v>38</v>
+      </c>
+      <c r="D23" s="18">
+        <v>39</v>
+      </c>
+      <c r="E23" s="18">
+        <v>40</v>
+      </c>
+      <c r="F23" s="20">
+        <v>41</v>
+      </c>
+      <c r="G23" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>43</v>
+      </c>
+      <c r="B24" s="18">
+        <v>44</v>
+      </c>
+      <c r="C24" s="18">
+        <v>45</v>
+      </c>
+      <c r="D24" s="18">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18">
+        <v>47</v>
+      </c>
+      <c r="F24" s="18">
+        <v>48</v>
+      </c>
+      <c r="G24" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20">
+        <v>51</v>
+      </c>
+      <c r="C25" s="20">
+        <v>52</v>
+      </c>
+      <c r="D25" s="20">
+        <v>53</v>
+      </c>
+      <c r="E25" s="18">
+        <v>54</v>
+      </c>
+      <c r="F25" s="18">
+        <v>55</v>
+      </c>
+      <c r="G25" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18">
+        <v>59</v>
+      </c>
+      <c r="D26" s="18">
+        <v>60</v>
+      </c>
+      <c r="E26" s="18">
+        <v>61</v>
+      </c>
+      <c r="F26" s="18">
+        <v>62</v>
+      </c>
+      <c r="G26" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>64</v>
+      </c>
+      <c r="B27" s="18">
+        <v>65</v>
+      </c>
+      <c r="C27" s="18">
+        <v>66</v>
+      </c>
+      <c r="D27" s="18">
+        <v>67</v>
+      </c>
+      <c r="E27" s="18">
+        <v>68</v>
+      </c>
+      <c r="F27" s="18">
+        <v>69</v>
+      </c>
+      <c r="G27" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>71</v>
+      </c>
+      <c r="B28" s="18">
+        <v>72</v>
+      </c>
+      <c r="C28" s="18">
+        <v>73</v>
+      </c>
+      <c r="D28" s="18">
+        <v>74</v>
+      </c>
+      <c r="E28" s="18">
+        <v>75</v>
+      </c>
+      <c r="F28" s="18">
+        <v>76</v>
+      </c>
+      <c r="G28" s="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>78</v>
+      </c>
+      <c r="B29" s="18">
+        <v>79</v>
+      </c>
+      <c r="C29" s="18">
+        <v>80</v>
+      </c>
+      <c r="D29" s="18">
+        <v>81</v>
+      </c>
+      <c r="E29" s="18">
+        <v>82</v>
+      </c>
+      <c r="F29" s="18">
+        <v>83</v>
+      </c>
+      <c r="G29" s="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>85</v>
+      </c>
+      <c r="B30" s="18">
+        <v>86</v>
+      </c>
+      <c r="C30" s="18">
+        <v>87</v>
+      </c>
+      <c r="D30" s="18">
+        <v>88</v>
+      </c>
+      <c r="E30" s="18">
+        <v>89</v>
+      </c>
+      <c r="F30" s="18">
+        <v>90</v>
+      </c>
+      <c r="G30" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>92</v>
+      </c>
+      <c r="B31" s="18">
+        <v>93</v>
+      </c>
+      <c r="C31" s="18">
+        <v>94</v>
+      </c>
+      <c r="D31" s="18">
+        <v>95</v>
+      </c>
+      <c r="E31" s="18">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4CAED9-3875-4A6B-AD2D-8B08614C597D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE8A37-4060-45AC-8CF2-7353A18F5D10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33375" yWindow="1470" windowWidth="17775" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -318,6 +318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -606,7 +609,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,7 @@
       <c r="C2" s="10">
         <v>43712</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>43713</v>
       </c>
       <c r="E2" s="11">
@@ -691,9 +694,15 @@
         <v>8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="L2" s="16">
+        <v>43712</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0.8125</v>
+      </c>
+      <c r="N2" s="21">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -920,9 +929,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1089,15 +1096,15 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE8A37-4060-45AC-8CF2-7353A18F5D10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF6C27-85B3-49D9-AB63-CE5876C51CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33375" yWindow="1470" windowWidth="17775" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="945" windowWidth="20580" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Monday</t>
   </si>
@@ -76,9 +76,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>20:00-22:00</t>
-  </si>
-  <si>
     <t>8:00-12:00</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>Course Content</t>
+  </si>
+  <si>
+    <t>Topic (#)</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -177,21 +186,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -228,9 +222,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -238,6 +230,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -246,13 +249,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -262,29 +296,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -302,28 +330,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,9 +700,10 @@
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,42 +725,48 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="O1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43710</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>43711</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>43712</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>43713</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>43714</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>43715</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>43716</v>
       </c>
       <c r="H2" s="1"/>
@@ -694,206 +777,240 @@
         <v>8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="16">
+      <c r="L2" s="22">
         <v>43712</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="19">
         <v>0.8125</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="24">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="O2" s="28">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>43717</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>43718</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>43719</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>43720</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>43721</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>43722</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>43723</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="L3" s="21">
+        <v>43713</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O3" s="27">
+        <v>2</v>
+      </c>
+      <c r="P3" s="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>43724</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>43725</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>43726</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>43727</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>43728</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>43729</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>43730</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="L4" s="22">
+        <v>43714</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="28">
+        <v>2</v>
+      </c>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43731</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>43732</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>43733</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>43734</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>43735</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>43736</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>43737</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>43738</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>43739</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>43740</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>43741</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>43742</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>43743</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>43744</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>43745</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>43746</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>43747</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>43748</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>43749</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>43750</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>43751</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>43752</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>43753</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -918,519 +1035,541 @@
       <c r="I9" s="3">
         <v>8</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>19</v>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>43717</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>43718</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>43719</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>43720</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>43721</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>43722</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>43723</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>43724</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>43725</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>43726</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>43727</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>43728</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>43729</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>43730</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>43731</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>43732</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>43733</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>43734</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>43735</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>43736</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>43737</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>43738</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>43739</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>43740</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>43741</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>43742</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>43743</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>43744</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>43745</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>43746</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>43747</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>43748</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>43749</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>43750</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>43751</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>43752</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>43753</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14">
+        <v>7</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14">
+        <v>14</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>15</v>
+      </c>
+      <c r="B20" s="13">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13">
+        <v>19</v>
+      </c>
+      <c r="F20" s="13">
+        <v>20</v>
+      </c>
+      <c r="G20" s="13">
+        <v>21</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="19">
-        <v>3</v>
-      </c>
-      <c r="D18" s="19">
-        <v>4</v>
-      </c>
-      <c r="E18" s="19">
-        <v>5</v>
-      </c>
-      <c r="F18" s="19">
-        <v>6</v>
-      </c>
-      <c r="G18" s="19">
-        <v>7</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="19">
-        <v>9</v>
-      </c>
-      <c r="C19" s="19">
-        <v>10</v>
-      </c>
-      <c r="D19" s="19">
-        <v>11</v>
-      </c>
-      <c r="E19" s="19">
-        <v>12</v>
-      </c>
-      <c r="F19" s="19">
-        <v>13</v>
-      </c>
-      <c r="G19" s="19">
-        <v>14</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>15</v>
-      </c>
-      <c r="B20" s="18">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18">
-        <v>17</v>
-      </c>
-      <c r="D20" s="18">
-        <v>18</v>
-      </c>
-      <c r="E20" s="18">
-        <v>19</v>
-      </c>
-      <c r="F20" s="18">
-        <v>20</v>
-      </c>
-      <c r="G20" s="18">
-        <v>21</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>22</v>
-      </c>
-      <c r="B21" s="18">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="C21" s="13">
         <v>24</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>25</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <v>26</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="13">
         <v>27</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>29</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="13">
         <v>30</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="13">
         <v>31</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <v>32</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="13">
         <v>33</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="13">
         <v>34</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>36</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="13">
         <v>37</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="13">
         <v>38</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <v>39</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="13">
         <v>40</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>41</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="13">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>43</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="13">
         <v>44</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="13">
         <v>45</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="13">
         <v>46</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="13">
         <v>47</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="13">
         <v>48</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="13">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>50</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="15">
         <v>51</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="15">
         <v>52</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="15">
         <v>53</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="13">
         <v>54</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="13">
         <v>55</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="13">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>57</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="13">
         <v>58</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="13">
         <v>59</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="13">
         <v>60</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="13">
         <v>61</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="13">
         <v>62</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="13">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>64</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="13">
         <v>65</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="13">
         <v>66</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="13">
         <v>67</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="13">
         <v>68</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="13">
         <v>69</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="13">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>71</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="13">
         <v>72</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="13">
         <v>73</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="13">
         <v>74</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="13">
         <v>75</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="13">
         <v>76</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="13">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>78</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="13">
         <v>79</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="13">
         <v>80</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="13">
         <v>81</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="13">
         <v>82</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="13">
         <v>83</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="13">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>85</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="13">
         <v>86</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="13">
         <v>87</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="13">
         <v>88</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="13">
         <v>89</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="13">
         <v>90</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="13">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>92</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="13">
         <v>93</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="13">
         <v>94</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="13">
         <v>95</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="13">
         <v>96</v>
       </c>
     </row>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF6C27-85B3-49D9-AB63-CE5876C51CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12409B3-730C-4D95-A24D-0142790B5549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="945" windowWidth="20580" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="945" windowWidth="14280" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>8:00-12:00</t>
   </si>
   <si>
     <t>Date</t>
@@ -118,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -315,9 +306,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,76 +318,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,135 +725,135 @@
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="36" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="38">
         <v>43710</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="38">
         <v>43711</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="38">
         <v>43712</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="38">
         <v>43713</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="38">
         <v>43714</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="38">
         <v>43715</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="38">
         <v>43716</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="3">
+      <c r="I2" s="35">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>43712</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="17">
         <v>0.8125</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="22">
         <v>0.875</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="26">
         <v>1</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="27">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43717</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>43718</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>43719</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43720</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>43721</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43722</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>43723</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="35">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="19">
         <v>43713</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <v>0.5</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="23">
         <v>0.58333333333333337</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="25">
         <v>2</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="28">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>43724</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>43725</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>43726</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>43727</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>43728</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43729</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>43730</v>
       </c>
       <c r="H4" s="1"/>
@@ -867,38 +864,42 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <v>43714</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>0.4375</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="28">
+      <c r="N4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="26">
         <v>2</v>
       </c>
-      <c r="P4" s="29"/>
+      <c r="P4" s="27">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>43731</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>43732</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>43733</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>43734</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>43735</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43736</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>43737</v>
       </c>
       <c r="H5" s="1"/>
@@ -909,32 +910,38 @@
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="30"/>
+      <c r="L5" s="19">
+        <v>43715</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.53125</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="25">
+        <v>3</v>
+      </c>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>43738</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>43739</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>43740</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>43741</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>43742</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>43743</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>43744</v>
       </c>
       <c r="H6" s="1"/>
@@ -945,32 +952,32 @@
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>43745</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>43746</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>43747</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>43748</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>43749</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>43750</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>43751</v>
       </c>
       <c r="H7" s="1"/>
@@ -980,81 +987,79 @@
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="30"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>43752</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>43753</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="30"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>18</v>
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
@@ -1062,520 +1067,358 @@
       <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>43717</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43718</v>
-      </c>
-      <c r="C11" s="9">
-        <v>43719</v>
-      </c>
-      <c r="D11" s="9">
-        <v>43720</v>
-      </c>
-      <c r="E11" s="9">
-        <v>43721</v>
-      </c>
-      <c r="F11" s="10">
-        <v>43722</v>
-      </c>
-      <c r="G11" s="10">
-        <v>43723</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="30"/>
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13">
+        <v>14</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43724</v>
-      </c>
-      <c r="B12" s="9">
-        <v>43725</v>
-      </c>
-      <c r="C12" s="9">
-        <v>43726</v>
-      </c>
-      <c r="D12" s="9">
-        <v>43727</v>
-      </c>
-      <c r="E12" s="9">
-        <v>43728</v>
-      </c>
-      <c r="F12" s="10">
-        <v>43729</v>
-      </c>
-      <c r="G12" s="10">
-        <v>43730</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
+      <c r="A12" s="14">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14">
+        <v>21</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>43731</v>
-      </c>
-      <c r="B13" s="9">
-        <v>43732</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43733</v>
-      </c>
-      <c r="D13" s="9">
-        <v>43734</v>
-      </c>
-      <c r="E13" s="9">
-        <v>43735</v>
-      </c>
-      <c r="F13" s="10">
-        <v>43736</v>
-      </c>
-      <c r="G13" s="10">
-        <v>43737</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="30"/>
+      <c r="A13" s="12">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12">
+        <v>26</v>
+      </c>
+      <c r="F13" s="12">
+        <v>27</v>
+      </c>
+      <c r="G13" s="12">
+        <v>28</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43738</v>
-      </c>
-      <c r="B14" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43740</v>
-      </c>
-      <c r="D14" s="9">
-        <v>43741</v>
-      </c>
-      <c r="E14" s="9">
-        <v>43742</v>
-      </c>
-      <c r="F14" s="10">
-        <v>43743</v>
-      </c>
-      <c r="G14" s="10">
-        <v>43744</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
+      <c r="A14" s="12">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12">
+        <v>35</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>43745</v>
-      </c>
-      <c r="B15" s="9">
-        <v>43746</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43747</v>
-      </c>
-      <c r="D15" s="9">
-        <v>43748</v>
-      </c>
-      <c r="E15" s="9">
-        <v>43749</v>
-      </c>
-      <c r="F15" s="10">
-        <v>43750</v>
-      </c>
-      <c r="G15" s="10">
-        <v>43751</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="30"/>
+      <c r="A15" s="12">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12">
+        <v>40</v>
+      </c>
+      <c r="F15" s="14">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12">
+        <v>42</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43752</v>
-      </c>
-      <c r="B16" s="9">
-        <v>43753</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
+      <c r="A16" s="12">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12">
+        <v>46</v>
+      </c>
+      <c r="E16" s="12">
+        <v>47</v>
+      </c>
+      <c r="F16" s="12">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12">
+        <v>49</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="30"/>
+      <c r="A17" s="12">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14">
+        <v>52</v>
+      </c>
+      <c r="D17" s="14">
+        <v>53</v>
+      </c>
+      <c r="E17" s="12">
+        <v>54</v>
+      </c>
+      <c r="F17" s="12">
+        <v>55</v>
+      </c>
+      <c r="G17" s="12">
+        <v>56</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>1</v>
-      </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14">
-        <v>4</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14">
-        <v>7</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
+      <c r="A18" s="12">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12">
+        <v>58</v>
+      </c>
+      <c r="C18" s="12">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12">
+        <v>60</v>
+      </c>
+      <c r="E18" s="12">
+        <v>61</v>
+      </c>
+      <c r="F18" s="12">
+        <v>62</v>
+      </c>
+      <c r="G18" s="12">
+        <v>63</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>8</v>
-      </c>
-      <c r="B19" s="14">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14">
-        <v>11</v>
-      </c>
-      <c r="E19" s="14">
-        <v>12</v>
-      </c>
-      <c r="F19" s="14">
-        <v>13</v>
-      </c>
-      <c r="G19" s="14">
-        <v>14</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="30"/>
+      <c r="A19" s="12">
+        <v>64</v>
+      </c>
+      <c r="B19" s="12">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12">
+        <v>66</v>
+      </c>
+      <c r="D19" s="12">
+        <v>67</v>
+      </c>
+      <c r="E19" s="12">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12">
+        <v>69</v>
+      </c>
+      <c r="G19" s="12">
+        <v>70</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>15</v>
-      </c>
-      <c r="B20" s="13">
-        <v>16</v>
-      </c>
-      <c r="C20" s="13">
-        <v>17</v>
-      </c>
-      <c r="D20" s="13">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13">
-        <v>19</v>
-      </c>
-      <c r="F20" s="13">
-        <v>20</v>
-      </c>
-      <c r="G20" s="13">
-        <v>21</v>
-      </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
+      <c r="A20" s="12">
+        <v>71</v>
+      </c>
+      <c r="B20" s="12">
+        <v>72</v>
+      </c>
+      <c r="C20" s="12">
+        <v>73</v>
+      </c>
+      <c r="D20" s="12">
+        <v>74</v>
+      </c>
+      <c r="E20" s="12">
+        <v>75</v>
+      </c>
+      <c r="F20" s="12">
+        <v>76</v>
+      </c>
+      <c r="G20" s="12">
+        <v>77</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13">
-        <v>23</v>
-      </c>
-      <c r="C21" s="13">
-        <v>24</v>
-      </c>
-      <c r="D21" s="13">
-        <v>25</v>
-      </c>
-      <c r="E21" s="13">
-        <v>26</v>
-      </c>
-      <c r="F21" s="13">
-        <v>27</v>
-      </c>
-      <c r="G21" s="13">
-        <v>28</v>
+      <c r="A21" s="12">
+        <v>78</v>
+      </c>
+      <c r="B21" s="12">
+        <v>79</v>
+      </c>
+      <c r="C21" s="12">
+        <v>80</v>
+      </c>
+      <c r="D21" s="12">
+        <v>81</v>
+      </c>
+      <c r="E21" s="12">
+        <v>82</v>
+      </c>
+      <c r="F21" s="12">
+        <v>83</v>
+      </c>
+      <c r="G21" s="12">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>29</v>
-      </c>
-      <c r="B22" s="13">
-        <v>30</v>
-      </c>
-      <c r="C22" s="13">
-        <v>31</v>
-      </c>
-      <c r="D22" s="13">
-        <v>32</v>
-      </c>
-      <c r="E22" s="13">
-        <v>33</v>
-      </c>
-      <c r="F22" s="13">
-        <v>34</v>
-      </c>
-      <c r="G22" s="13">
-        <v>35</v>
+      <c r="A22" s="12">
+        <v>85</v>
+      </c>
+      <c r="B22" s="12">
+        <v>86</v>
+      </c>
+      <c r="C22" s="12">
+        <v>87</v>
+      </c>
+      <c r="D22" s="12">
+        <v>88</v>
+      </c>
+      <c r="E22" s="12">
+        <v>89</v>
+      </c>
+      <c r="F22" s="12">
+        <v>90</v>
+      </c>
+      <c r="G22" s="12">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13">
-        <v>37</v>
-      </c>
-      <c r="C23" s="13">
-        <v>38</v>
-      </c>
-      <c r="D23" s="13">
-        <v>39</v>
-      </c>
-      <c r="E23" s="13">
-        <v>40</v>
-      </c>
-      <c r="F23" s="15">
-        <v>41</v>
-      </c>
-      <c r="G23" s="13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13">
-        <v>44</v>
-      </c>
-      <c r="C24" s="13">
-        <v>45</v>
-      </c>
-      <c r="D24" s="13">
-        <v>46</v>
-      </c>
-      <c r="E24" s="13">
-        <v>47</v>
-      </c>
-      <c r="F24" s="13">
-        <v>48</v>
-      </c>
-      <c r="G24" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>50</v>
-      </c>
-      <c r="B25" s="15">
-        <v>51</v>
-      </c>
-      <c r="C25" s="15">
-        <v>52</v>
-      </c>
-      <c r="D25" s="15">
-        <v>53</v>
-      </c>
-      <c r="E25" s="13">
-        <v>54</v>
-      </c>
-      <c r="F25" s="13">
-        <v>55</v>
-      </c>
-      <c r="G25" s="13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>57</v>
-      </c>
-      <c r="B26" s="13">
-        <v>58</v>
-      </c>
-      <c r="C26" s="13">
-        <v>59</v>
-      </c>
-      <c r="D26" s="13">
-        <v>60</v>
-      </c>
-      <c r="E26" s="13">
-        <v>61</v>
-      </c>
-      <c r="F26" s="13">
-        <v>62</v>
-      </c>
-      <c r="G26" s="13">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>64</v>
-      </c>
-      <c r="B27" s="13">
-        <v>65</v>
-      </c>
-      <c r="C27" s="13">
-        <v>66</v>
-      </c>
-      <c r="D27" s="13">
-        <v>67</v>
-      </c>
-      <c r="E27" s="13">
-        <v>68</v>
-      </c>
-      <c r="F27" s="13">
-        <v>69</v>
-      </c>
-      <c r="G27" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>71</v>
-      </c>
-      <c r="B28" s="13">
-        <v>72</v>
-      </c>
-      <c r="C28" s="13">
-        <v>73</v>
-      </c>
-      <c r="D28" s="13">
-        <v>74</v>
-      </c>
-      <c r="E28" s="13">
-        <v>75</v>
-      </c>
-      <c r="F28" s="13">
-        <v>76</v>
-      </c>
-      <c r="G28" s="13">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>78</v>
-      </c>
-      <c r="B29" s="13">
-        <v>79</v>
-      </c>
-      <c r="C29" s="13">
-        <v>80</v>
-      </c>
-      <c r="D29" s="13">
-        <v>81</v>
-      </c>
-      <c r="E29" s="13">
-        <v>82</v>
-      </c>
-      <c r="F29" s="13">
-        <v>83</v>
-      </c>
-      <c r="G29" s="13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>85</v>
-      </c>
-      <c r="B30" s="13">
-        <v>86</v>
-      </c>
-      <c r="C30" s="13">
-        <v>87</v>
-      </c>
-      <c r="D30" s="13">
-        <v>88</v>
-      </c>
-      <c r="E30" s="13">
-        <v>89</v>
-      </c>
-      <c r="F30" s="13">
-        <v>90</v>
-      </c>
-      <c r="G30" s="13">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A23" s="12">
         <v>92</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B23" s="12">
         <v>93</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C23" s="12">
         <v>94</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D23" s="12">
         <v>95</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E23" s="12">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12409B3-730C-4D95-A24D-0142790B5549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03B152-59E3-4711-9213-4FA2B2AEEEAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="945" windowWidth="14280" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -330,9 +330,6 @@
     <xf numFmtId="16" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,10 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +679,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,68 +722,68 @@
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="36">
         <v>43710</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <v>43711</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>43712</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>43713</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <v>43714</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="36">
         <v>43715</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="36">
         <v>43716</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="35">
+      <c r="I2" s="34">
         <v>1</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>43712</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>0.8125</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>0.875</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>1</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="26">
         <v>90</v>
       </c>
     </row>
@@ -812,25 +809,25 @@
       <c r="G3" s="9">
         <v>43723</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>2</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>43713</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>0.5</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="24">
         <v>2</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <v>120</v>
       </c>
     </row>
@@ -864,19 +861,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>43714</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>0.4375</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>0.5</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>2</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="26">
         <v>90</v>
       </c>
     </row>
@@ -910,17 +907,21 @@
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>43715</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>0.53125</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="25">
+      <c r="N5" s="22">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="O5" s="24">
         <v>3</v>
       </c>
-      <c r="P5" s="28"/>
+      <c r="P5" s="27">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -952,11 +953,21 @@
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
+      <c r="L6" s="19">
+        <v>43716</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="25">
+        <v>3</v>
+      </c>
+      <c r="P6" s="26">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -987,11 +998,11 @@
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="28"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1011,11 +1022,11 @@
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -1033,11 +1044,11 @@
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="28"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1067,11 +1078,11 @@
       <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1095,11 +1106,11 @@
       <c r="G11" s="13">
         <v>14</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="28"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -1123,67 +1134,67 @@
       <c r="G12" s="14">
         <v>21</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>23</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <v>25</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <v>26</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <v>27</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <v>28</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="28"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>29</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>31</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <v>32</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <v>33</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>34</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <v>35</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -1207,11 +1218,11 @@
       <c r="G15" s="12">
         <v>42</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="28"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1235,11 +1246,11 @@
       <c r="G16" s="12">
         <v>49</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1263,11 +1274,11 @@
       <c r="G17" s="12">
         <v>56</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="28"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1291,11 +1302,11 @@
       <c r="G18" s="12">
         <v>63</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1319,11 +1330,11 @@
       <c r="G19" s="12">
         <v>70</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="28"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -1347,11 +1358,11 @@
       <c r="G20" s="12">
         <v>77</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12">

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03B152-59E3-4711-9213-4FA2B2AEEEAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB15EC5-BD9C-4611-961B-170734EEDAD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -390,10 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +685,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,25 +748,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>43710</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="37">
         <v>43711</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="37">
         <v>43712</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="37">
         <v>43713</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="37">
         <v>43714</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <v>43715</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="37">
         <v>43716</v>
       </c>
       <c r="H2" s="1"/>
@@ -788,10 +794,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="37">
         <v>43717</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="37">
         <v>43718</v>
       </c>
       <c r="C3" s="8">
@@ -1029,15 +1035,15 @@
       <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB15EC5-BD9C-4611-961B-170734EEDAD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBFE76-534F-4D51-8F7E-696724B5148F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Monday</t>
   </si>
@@ -396,10 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,25 +748,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>43710</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>43711</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>43712</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>43713</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>43714</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="36">
         <v>43715</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="36">
         <v>43716</v>
       </c>
       <c r="H2" s="1"/>
@@ -794,13 +794,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>43717</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>43718</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="36">
         <v>43719</v>
       </c>
       <c r="D3" s="8">
@@ -1004,11 +1004,21 @@
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="27"/>
+      <c r="L7" s="18">
+        <v>43718</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O7" s="24">
+        <v>4</v>
+      </c>
+      <c r="P7" s="27">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1035,15 +1045,15 @@
       <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBFE76-534F-4D51-8F7E-696724B5148F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C5ADA-610D-4E81-86F5-C91A2E9EE5F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
       <c r="C3" s="36">
         <v>43719</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="36">
         <v>43720</v>
       </c>
       <c r="E3" s="8">
@@ -1038,11 +1038,21 @@
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="L8" s="19">
+        <v>43720</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.9375</v>
+      </c>
+      <c r="O8" s="25">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C5ADA-610D-4E81-86F5-C91A2E9EE5F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8897BC-089F-408F-9FDF-3F41D0EE06C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Monday</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Week 1 - IAM + S3</t>
+  </si>
+  <si>
+    <t>Week 2 - EC2</t>
+  </si>
+  <si>
+    <t>Week 3 - Databases</t>
+  </si>
+  <si>
+    <t>Week 4 - R53 + VPCS</t>
+  </si>
+  <si>
+    <t>Week 5 - HA Architecture</t>
+  </si>
+  <si>
+    <t>Week 6 - Applications + Serverless</t>
+  </si>
+  <si>
+    <t>Week 7 - Review + Exam</t>
   </si>
 </sst>
 </file>
@@ -293,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -402,6 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +828,7 @@
       <c r="D3" s="36">
         <v>43720</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="36">
         <v>43721</v>
       </c>
       <c r="F3" s="9">
@@ -1453,6 +1475,45 @@
         <v>96</v>
       </c>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:G9"/>

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8897BC-089F-408F-9FDF-3F41D0EE06C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E00B78-DA12-4DAC-A089-C9D85CDCCC87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,10 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
       <c r="E3" s="36">
         <v>43721</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="36">
         <v>43722</v>
       </c>
       <c r="G3" s="9">
@@ -1077,15 +1077,15 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>
@@ -1476,18 +1476,18 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E00B78-DA12-4DAC-A089-C9D85CDCCC87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D58CF9-94A0-4C7C-A65C-CB77F10B541A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
       <c r="F3" s="36">
         <v>43722</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="36">
         <v>43723</v>
       </c>
       <c r="I3" s="34">
@@ -860,10 +860,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="36">
         <v>43724</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="36">
         <v>43725</v>
       </c>
       <c r="C4" s="8">

--- a/SolutionsArchitect/AWS-Solutions-Architect.xlsx
+++ b/SolutionsArchitect/AWS-Solutions-Architect.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D58CF9-94A0-4C7C-A65C-CB77F10B541A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998207F-7DD9-497F-839B-C6F90DC80254}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="1410" windowWidth="19815" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="660" windowWidth="19815" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Practice Exam" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Monday</t>
   </si>
@@ -113,6 +114,39 @@
   </si>
   <si>
     <t>Week 7 - Review + Exam</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Performance Achitecture</t>
+  </si>
+  <si>
+    <t>Secure Applications/Architecture</t>
+  </si>
+  <si>
+    <t>Resilient Architecture</t>
+  </si>
+  <si>
+    <t>Cost-Optimized Architecture</t>
+  </si>
+  <si>
+    <t>Operationally Excellent Architecture</t>
+  </si>
+  <si>
+    <t>Perc</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>Improvement Areas</t>
+  </si>
+  <si>
+    <t>Polling</t>
+  </si>
+  <si>
+    <t>Permissions</t>
   </si>
 </sst>
 </file>
@@ -314,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,6 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,29 +1525,39 @@
       <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="37" t="s">
         <v>28</v>
       </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="37" t="s">
         <v>30</v>
       </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1520,4 +1565,87 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761B2C55-7E64-4520-9588-EEE2D688DCD8}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>